--- a/data/ReferenceErrorDetection_data_new_annotation.xlsx
+++ b/data/ReferenceErrorDetection_data_new_annotation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b78b8e360351019/_Dokumente/Studium/Master/Masterarbeit/_citation-verification/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Masterarbeit\citation-verification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1727" documentId="13_ncr:1_{B33DEF46-8D5C-4CEA-B7C9-745BBB55C90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDA2094-FBF3-43FB-A9AA-95304366D735}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB327D43-2820-4AC1-8F02-08CAE684D3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19140" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$485</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$498</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8933" uniqueCount="2301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9143" uniqueCount="2308">
   <si>
     <t>Source</t>
   </si>
@@ -7061,12 +7061,34 @@
   <si>
     <t>Attempts have been made to reduce and mitigate Li dendrites in liquid electrolyte systems through the use of separators [7, 8, 9, 10], electrolyte additives [11, 12, 13], and Li-hosted matrices [14, 15, 16, 17].</t>
   </si>
+  <si>
+    <t>Recently, graphene oxide (GO) or reduced graphene oxide (rGO) has demonstrated electrochemical and electrocatalytic properties [21, 22].</t>
+  </si>
+  <si>
+    <t>Once the spines are assembled, the enzyme binds substrates cooperatively [7, 8] and transfers the γ-phosphate of ATP to Ser/Thr acceptors.</t>
+  </si>
+  <si>
+    <t>A critical question for sustainable development is whether the use of outdoor light will continue to grow exponentially or whether developed countries are nearing saturation in demand [3].</t>
+  </si>
+  <si>
+    <t>Long-term changes in the radiometric calibration of the DNB itself are well understood and corrected [43].</t>
+  </si>
+  <si>
+    <t>Various kinds of flexible and stretchable devices based on an ultrathin [16, 17, 18] and stretchable design [19, 20] have been developed for monitoring individual health status and delivering the corresponding feedback therapy [21, 22].</t>
+  </si>
+  <si>
+    <t>To date, Pt-based NW electrocatalysts have been achieved through several approaches [14, 15].</t>
+  </si>
+  <si>
+    <t>The individual yarn exerted an isometric force of
+8.0 ± 0.5 mN and an isotonic strain of 0.140 ± 0.005% relative to the equilibrium strain caused by the applied load. The resulting strain is lower than typically observed for pure PPy films [38, 39, 40, 41] but similar to other CP devices [42].</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7088,6 +7110,12 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7177,7 +7205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7277,6 +7305,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -7467,10 +7512,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8175,10 +8220,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8465,10 +8506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB485"/>
+  <dimension ref="A1:AB498"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G432" sqref="G432"/>
+    <sheetView tabSelected="1" topLeftCell="G451" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J452" sqref="J452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8482,15 +8523,17 @@
     <col min="8" max="8" width="8.5703125" style="38" customWidth="1"/>
     <col min="9" max="9" width="56.85546875" style="11" customWidth="1"/>
     <col min="10" max="10" width="46" style="14" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="8" customWidth="1"/>
-    <col min="12" max="13" width="21.5703125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="1.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="14" customWidth="1"/>
     <col min="15" max="15" width="21.5703125" style="14" customWidth="1"/>
-    <col min="16" max="17" width="23" style="14" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="14" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="14" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="22"/>
-    <col min="19" max="19" width="30.42578125" style="22" customWidth="1"/>
-    <col min="20" max="20" width="62.140625" style="23" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" style="22" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="22" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="23" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="22" customWidth="1"/>
     <col min="22" max="22" width="7.7109375" style="22" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="22"/>
     <col min="24" max="24" width="12" style="22" customWidth="1"/>
@@ -39890,7 +39933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="432" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>636</v>
       </c>
@@ -39918,14 +39961,28 @@
       <c r="I432" s="10" t="s">
         <v>1369</v>
       </c>
-      <c r="J432" s="13"/>
+      <c r="J432" s="13" t="s">
+        <v>2301</v>
+      </c>
       <c r="K432" s="2"/>
-      <c r="L432" s="13"/>
-      <c r="M432" s="13"/>
-      <c r="N432" s="13"/>
-      <c r="O432" s="13"/>
-      <c r="P432" s="13"/>
-      <c r="Q432" s="13"/>
+      <c r="L432" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M432" s="13">
+        <v>1</v>
+      </c>
+      <c r="N432" s="13">
+        <v>2</v>
+      </c>
+      <c r="O432" s="13" t="s">
+        <v>1827</v>
+      </c>
+      <c r="P432" s="13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q432" s="13">
+        <v>22</v>
+      </c>
       <c r="R432" s="19" t="s">
         <v>1368</v>
       </c>
@@ -39956,84 +40013,82 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+    <row r="433" spans="1:28" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A433" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B433" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F433" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G433" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H433" s="37" t="s">
-        <v>2045</v>
-      </c>
-      <c r="I433" s="10" t="s">
-        <v>1377</v>
-      </c>
-      <c r="J433" s="13"/>
-      <c r="K433" s="2"/>
-      <c r="L433" s="13"/>
-      <c r="M433" s="13"/>
-      <c r="N433" s="13"/>
-      <c r="O433" s="13"/>
-      <c r="P433" s="13"/>
-      <c r="Q433" s="13"/>
-      <c r="R433" s="19" t="s">
-        <v>1376</v>
-      </c>
-      <c r="S433" s="19" t="s">
-        <v>1378</v>
-      </c>
-      <c r="T433" s="20" t="s">
-        <v>1379</v>
-      </c>
-      <c r="U433" s="19" t="s">
-        <v>1380</v>
-      </c>
-      <c r="V433" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W433" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X433" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y433" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z433" s="19"/>
-      <c r="AA433" s="21"/>
-      <c r="AB433" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="434" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B433" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C433" s="24" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D433" s="25" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E433" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F433" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G433" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H433" s="39" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I433" s="26" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J433" s="27" t="s">
+        <v>2301</v>
+      </c>
+      <c r="K433" s="25"/>
+      <c r="L433" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M433" s="27">
+        <v>1</v>
+      </c>
+      <c r="N433" s="27">
+        <v>2</v>
+      </c>
+      <c r="O433" s="27" t="s">
+        <v>1827</v>
+      </c>
+      <c r="P433" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q433" s="27">
+        <v>21</v>
+      </c>
+      <c r="R433" s="28"/>
+      <c r="S433" s="28"/>
+      <c r="T433" s="29"/>
+      <c r="U433" s="28"/>
+      <c r="V433" s="28"/>
+      <c r="W433" s="28"/>
+      <c r="X433" s="28"/>
+      <c r="Y433" s="28"/>
+      <c r="Z433" s="28"/>
+      <c r="AA433" s="30"/>
+      <c r="AB433" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="434" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>28</v>
@@ -40042,33 +40097,47 @@
         <v>21</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>685</v>
+        <v>324</v>
       </c>
       <c r="H434" s="37" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="I434" s="10" t="s">
-        <v>1385</v>
-      </c>
-      <c r="J434" s="13"/>
+        <v>1377</v>
+      </c>
+      <c r="J434" s="13" t="s">
+        <v>2302</v>
+      </c>
       <c r="K434" s="2"/>
-      <c r="L434" s="13"/>
-      <c r="M434" s="13"/>
-      <c r="N434" s="13"/>
-      <c r="O434" s="13"/>
-      <c r="P434" s="13"/>
-      <c r="Q434" s="13"/>
+      <c r="L434" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M434" s="13">
+        <v>1</v>
+      </c>
+      <c r="N434" s="13">
+        <v>2</v>
+      </c>
+      <c r="O434" s="13" t="s">
+        <v>1878</v>
+      </c>
+      <c r="P434" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q434" s="13">
+        <v>8</v>
+      </c>
       <c r="R434" s="19" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="S434" s="19" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="T434" s="20" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="U434" s="19" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="V434" s="19" t="s">
         <v>21</v>
@@ -40088,70 +40157,68 @@
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
+    <row r="435" spans="1:28" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A435" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E435" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G435" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="H435" s="37" t="s">
-        <v>2047</v>
-      </c>
-      <c r="I435" s="10" t="s">
-        <v>1390</v>
-      </c>
-      <c r="J435" s="13"/>
-      <c r="K435" s="2"/>
-      <c r="L435" s="13"/>
-      <c r="M435" s="13"/>
-      <c r="N435" s="13"/>
-      <c r="O435" s="13"/>
-      <c r="P435" s="13"/>
-      <c r="Q435" s="13"/>
-      <c r="R435" s="19" t="s">
-        <v>1389</v>
-      </c>
-      <c r="S435" s="19" t="s">
-        <v>1391</v>
-      </c>
-      <c r="T435" s="20" t="s">
-        <v>1392</v>
-      </c>
-      <c r="U435" s="19" t="s">
-        <v>1393</v>
-      </c>
-      <c r="V435" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W435" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X435" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y435" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z435" s="19"/>
-      <c r="AA435" s="21"/>
-      <c r="AB435" s="19" t="s">
-        <v>28</v>
+      <c r="B435" s="24" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C435" s="24" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D435" s="25" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E435" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F435" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G435" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H435" s="39" t="s">
+        <v>2045</v>
+      </c>
+      <c r="I435" s="26" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J435" s="27" t="s">
+        <v>2302</v>
+      </c>
+      <c r="K435" s="25"/>
+      <c r="L435" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M435" s="27">
+        <v>1</v>
+      </c>
+      <c r="N435" s="27">
+        <v>2</v>
+      </c>
+      <c r="O435" s="27" t="s">
+        <v>1878</v>
+      </c>
+      <c r="P435" s="27" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q435" s="27">
+        <v>7</v>
+      </c>
+      <c r="R435" s="28"/>
+      <c r="S435" s="28"/>
+      <c r="T435" s="29"/>
+      <c r="U435" s="28"/>
+      <c r="V435" s="28"/>
+      <c r="W435" s="28"/>
+      <c r="X435" s="28"/>
+      <c r="Y435" s="28"/>
+      <c r="Z435" s="28"/>
+      <c r="AA435" s="30"/>
+      <c r="AB435" s="28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="436" spans="1:28" ht="60" x14ac:dyDescent="0.25">
@@ -40159,13 +40226,13 @@
         <v>636</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>28</v>
@@ -40174,33 +40241,47 @@
         <v>21</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>22</v>
+        <v>685</v>
       </c>
       <c r="H436" s="37" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="I436" s="10" t="s">
-        <v>1398</v>
-      </c>
-      <c r="J436" s="13"/>
+        <v>1385</v>
+      </c>
+      <c r="J436" s="13" t="s">
+        <v>2303</v>
+      </c>
       <c r="K436" s="2"/>
-      <c r="L436" s="13"/>
-      <c r="M436" s="13"/>
-      <c r="N436" s="13"/>
-      <c r="O436" s="13"/>
-      <c r="P436" s="13"/>
-      <c r="Q436" s="13"/>
+      <c r="L436" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M436" s="13">
+        <v>1</v>
+      </c>
+      <c r="N436" s="13">
+        <v>1</v>
+      </c>
+      <c r="O436" s="13" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P436" s="13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q436" s="13">
+        <v>3</v>
+      </c>
       <c r="R436" s="19" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="S436" s="19" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="T436" s="20" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="U436" s="19" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="V436" s="19" t="s">
         <v>21</v>
@@ -40220,18 +40301,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>28</v>
@@ -40240,33 +40321,47 @@
         <v>21</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>39</v>
+        <v>685</v>
       </c>
       <c r="H437" s="37" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="I437" s="10" t="s">
-        <v>1406</v>
-      </c>
-      <c r="J437" s="13"/>
+        <v>1390</v>
+      </c>
+      <c r="J437" s="13" t="s">
+        <v>2304</v>
+      </c>
       <c r="K437" s="2"/>
-      <c r="L437" s="13"/>
-      <c r="M437" s="13"/>
-      <c r="N437" s="13"/>
-      <c r="O437" s="13"/>
-      <c r="P437" s="13"/>
-      <c r="Q437" s="13"/>
+      <c r="L437" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M437" s="13">
+        <v>1</v>
+      </c>
+      <c r="N437" s="13">
+        <v>1</v>
+      </c>
+      <c r="O437" s="13" t="s">
+        <v>1827</v>
+      </c>
+      <c r="P437" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q437" s="13">
+        <v>43</v>
+      </c>
       <c r="R437" s="19" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
       <c r="S437" s="19" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="T437" s="20" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="U437" s="19" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="V437" s="19" t="s">
         <v>21</v>
@@ -40286,488 +40381,482 @@
         <v>28</v>
       </c>
     </row>
-    <row r="438" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
+    <row r="438" spans="1:28" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A438" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="B438" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E438" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F438" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G438" s="1" t="s">
+      <c r="B438" s="41" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C438" s="41" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D438" s="42" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E438" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F438" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G438" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H438" s="37" t="s">
-        <v>2050</v>
-      </c>
-      <c r="I438" s="10" t="s">
-        <v>1414</v>
-      </c>
-      <c r="J438" s="13"/>
-      <c r="K438" s="2"/>
-      <c r="L438" s="13"/>
-      <c r="M438" s="13"/>
-      <c r="N438" s="13"/>
-      <c r="O438" s="13"/>
-      <c r="P438" s="13"/>
-      <c r="Q438" s="13"/>
-      <c r="R438" s="19" t="s">
-        <v>1413</v>
-      </c>
-      <c r="S438" s="19" t="s">
-        <v>1415</v>
-      </c>
-      <c r="T438" s="20" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U438" s="19" t="s">
-        <v>1417</v>
-      </c>
-      <c r="V438" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W438" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X438" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y438" s="19" t="s">
+      <c r="H438" s="43" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I438" s="44" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J438" s="45" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K438" s="42"/>
+      <c r="L438" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M438" s="45">
+        <v>3</v>
+      </c>
+      <c r="N438" s="45">
+        <v>2</v>
+      </c>
+      <c r="O438" s="45" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P438" s="45" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q438" s="45">
+        <v>20</v>
+      </c>
+      <c r="R438" s="46" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S438" s="46" t="s">
+        <v>1399</v>
+      </c>
+      <c r="T438" s="47" t="s">
+        <v>1400</v>
+      </c>
+      <c r="U438" s="46" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V438" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="W438" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="X438" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y438" s="46" t="s">
         <v>1821</v>
       </c>
-      <c r="Z438" s="19"/>
-      <c r="AA438" s="21"/>
-      <c r="AB438" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="439" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
+      <c r="Z438" s="46"/>
+      <c r="AA438" s="48"/>
+      <c r="AB438" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="439" spans="1:28" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A439" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G439" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H439" s="37" t="s">
-        <v>2051</v>
-      </c>
-      <c r="I439" s="10" t="s">
-        <v>1422</v>
-      </c>
-      <c r="J439" s="13"/>
-      <c r="K439" s="2"/>
-      <c r="L439" s="13"/>
-      <c r="M439" s="13"/>
-      <c r="N439" s="13"/>
-      <c r="O439" s="13"/>
-      <c r="P439" s="13"/>
-      <c r="Q439" s="13"/>
-      <c r="R439" s="19" t="s">
-        <v>1421</v>
-      </c>
-      <c r="S439" s="19" t="s">
-        <v>1423</v>
-      </c>
-      <c r="T439" s="20" t="s">
-        <v>1424</v>
-      </c>
-      <c r="U439" s="19" t="s">
-        <v>1425</v>
-      </c>
-      <c r="V439" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W439" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X439" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y439" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z439" s="19"/>
-      <c r="AA439" s="21"/>
-      <c r="AB439" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="440" spans="1:28" ht="150" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
+      <c r="B439" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C439" s="24" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D439" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E439" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F439" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G439" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H439" s="39" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I439" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J439" s="27" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K439" s="25"/>
+      <c r="L439" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M439" s="27">
+        <v>3</v>
+      </c>
+      <c r="N439" s="27">
+        <v>2</v>
+      </c>
+      <c r="O439" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P439" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q439" s="27">
+        <v>19</v>
+      </c>
+      <c r="R439" s="28"/>
+      <c r="S439" s="28"/>
+      <c r="T439" s="29"/>
+      <c r="U439" s="28"/>
+      <c r="V439" s="28"/>
+      <c r="W439" s="28"/>
+      <c r="X439" s="28"/>
+      <c r="Y439" s="28"/>
+      <c r="Z439" s="28"/>
+      <c r="AA439" s="30"/>
+      <c r="AB439" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="440" spans="1:28" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A440" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F440" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G440" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H440" s="37" t="s">
-        <v>2052</v>
-      </c>
-      <c r="I440" s="10" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J440" s="13" t="s">
-        <v>1805</v>
-      </c>
-      <c r="K440" s="7" t="s">
-        <v>1814</v>
-      </c>
-      <c r="L440" s="13"/>
-      <c r="M440" s="13"/>
-      <c r="N440" s="13"/>
-      <c r="O440" s="13"/>
-      <c r="P440" s="13"/>
-      <c r="Q440" s="13"/>
-      <c r="R440" s="19" t="s">
-        <v>1429</v>
-      </c>
-      <c r="S440" s="19" t="s">
-        <v>1431</v>
-      </c>
-      <c r="T440" s="20" t="s">
-        <v>1432</v>
-      </c>
-      <c r="U440" s="19" t="s">
-        <v>1433</v>
-      </c>
-      <c r="V440" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W440" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X440" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y440" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z440" s="19"/>
-      <c r="AA440" s="21"/>
-      <c r="AB440" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="441" spans="1:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+      <c r="B440" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C440" s="24" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D440" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E440" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F440" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G440" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H440" s="39" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I440" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J440" s="27" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K440" s="25"/>
+      <c r="L440" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M440" s="27">
+        <v>3</v>
+      </c>
+      <c r="N440" s="27">
+        <v>3</v>
+      </c>
+      <c r="O440" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P440" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q440" s="27">
+        <v>16</v>
+      </c>
+      <c r="R440" s="28"/>
+      <c r="S440" s="28"/>
+      <c r="T440" s="29"/>
+      <c r="U440" s="28"/>
+      <c r="V440" s="28"/>
+      <c r="W440" s="28"/>
+      <c r="X440" s="28"/>
+      <c r="Y440" s="28"/>
+      <c r="Z440" s="28"/>
+      <c r="AA440" s="30"/>
+      <c r="AB440" s="28" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="441" spans="1:28" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A441" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G441" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H441" s="37" t="s">
-        <v>2053</v>
-      </c>
-      <c r="I441" s="10" t="s">
-        <v>1435</v>
-      </c>
-      <c r="J441" s="13" t="s">
-        <v>1806</v>
-      </c>
-      <c r="K441" s="7" t="s">
-        <v>1808</v>
-      </c>
-      <c r="L441" s="13"/>
-      <c r="M441" s="13"/>
-      <c r="N441" s="13"/>
-      <c r="O441" s="13"/>
-      <c r="P441" s="13"/>
-      <c r="Q441" s="13"/>
-      <c r="R441" s="19" t="s">
-        <v>1434</v>
-      </c>
-      <c r="S441" s="19" t="s">
-        <v>1436</v>
-      </c>
-      <c r="T441" s="20" t="s">
-        <v>1437</v>
-      </c>
-      <c r="U441" s="19" t="s">
-        <v>1438</v>
-      </c>
-      <c r="V441" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W441" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X441" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y441" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z441" s="19"/>
-      <c r="AA441" s="21"/>
-      <c r="AB441" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="442" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
+      <c r="B441" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C441" s="24" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D441" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E441" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F441" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G441" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H441" s="39" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I441" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J441" s="27" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K441" s="25"/>
+      <c r="L441" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M441" s="27">
+        <v>3</v>
+      </c>
+      <c r="N441" s="27">
+        <v>3</v>
+      </c>
+      <c r="O441" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P441" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q441" s="27">
+        <v>17</v>
+      </c>
+      <c r="R441" s="28"/>
+      <c r="S441" s="28"/>
+      <c r="T441" s="29"/>
+      <c r="U441" s="28"/>
+      <c r="V441" s="28"/>
+      <c r="W441" s="28"/>
+      <c r="X441" s="28"/>
+      <c r="Y441" s="28"/>
+      <c r="Z441" s="28"/>
+      <c r="AA441" s="30"/>
+      <c r="AB441" s="28" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="442" spans="1:28" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A442" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E442" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G442" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H442" s="37" t="s">
-        <v>2054</v>
-      </c>
-      <c r="I442" s="10" t="s">
-        <v>1443</v>
-      </c>
-      <c r="J442" s="13"/>
-      <c r="K442" s="2"/>
-      <c r="L442" s="13"/>
-      <c r="M442" s="13"/>
-      <c r="N442" s="13"/>
-      <c r="O442" s="13"/>
-      <c r="P442" s="13"/>
-      <c r="Q442" s="13"/>
-      <c r="R442" s="19" t="s">
-        <v>1442</v>
-      </c>
-      <c r="S442" s="19" t="s">
-        <v>1444</v>
-      </c>
-      <c r="T442" s="20" t="s">
-        <v>1445</v>
-      </c>
-      <c r="U442" s="19" t="s">
-        <v>1446</v>
-      </c>
-      <c r="V442" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W442" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X442" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y442" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z442" s="19"/>
-      <c r="AA442" s="21"/>
-      <c r="AB442" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="443" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
+      <c r="B442" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C442" s="24" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D442" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E442" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F442" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G442" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H442" s="39" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I442" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J442" s="27" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K442" s="25"/>
+      <c r="L442" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M442" s="27">
+        <v>3</v>
+      </c>
+      <c r="N442" s="27">
+        <v>3</v>
+      </c>
+      <c r="O442" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P442" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q442" s="27">
+        <v>18</v>
+      </c>
+      <c r="R442" s="28"/>
+      <c r="S442" s="28"/>
+      <c r="T442" s="29"/>
+      <c r="U442" s="28"/>
+      <c r="V442" s="28"/>
+      <c r="W442" s="28"/>
+      <c r="X442" s="28"/>
+      <c r="Y442" s="28"/>
+      <c r="Z442" s="28"/>
+      <c r="AA442" s="30"/>
+      <c r="AB442" s="28" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="443" spans="1:28" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A443" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E443" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G443" s="1" t="s">
+      <c r="B443" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C443" s="24" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D443" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E443" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F443" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G443" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H443" s="37" t="s">
-        <v>2055</v>
-      </c>
-      <c r="I443" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="J443" s="13"/>
-      <c r="K443" s="2"/>
-      <c r="L443" s="13"/>
-      <c r="M443" s="13"/>
-      <c r="N443" s="13"/>
-      <c r="O443" s="13"/>
-      <c r="P443" s="13"/>
-      <c r="Q443" s="13"/>
-      <c r="R443" s="19" t="s">
-        <v>1450</v>
-      </c>
-      <c r="S443" s="19" t="s">
-        <v>1452</v>
-      </c>
-      <c r="T443" s="20" t="s">
-        <v>1453</v>
-      </c>
-      <c r="U443" s="19" t="s">
-        <v>1454</v>
-      </c>
-      <c r="V443" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W443" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X443" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y443" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z443" s="19"/>
-      <c r="AA443" s="21"/>
-      <c r="AB443" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="444" spans="1:28" ht="90" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
+      <c r="H443" s="39" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I443" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J443" s="27" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K443" s="25"/>
+      <c r="L443" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M443" s="27">
+        <v>3</v>
+      </c>
+      <c r="N443" s="27">
+        <v>2</v>
+      </c>
+      <c r="O443" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P443" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q443" s="27">
+        <v>21</v>
+      </c>
+      <c r="R443" s="28"/>
+      <c r="S443" s="28"/>
+      <c r="T443" s="29"/>
+      <c r="U443" s="28"/>
+      <c r="V443" s="28"/>
+      <c r="W443" s="28"/>
+      <c r="X443" s="28"/>
+      <c r="Y443" s="28"/>
+      <c r="Z443" s="28"/>
+      <c r="AA443" s="30"/>
+      <c r="AB443" s="28" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="444" spans="1:28" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A444" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E444" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G444" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H444" s="37" t="s">
-        <v>2056</v>
-      </c>
-      <c r="I444" s="10" t="s">
-        <v>1459</v>
-      </c>
-      <c r="J444" s="13"/>
-      <c r="K444" s="2"/>
-      <c r="L444" s="13"/>
-      <c r="M444" s="13"/>
-      <c r="N444" s="13"/>
-      <c r="O444" s="13"/>
-      <c r="P444" s="13"/>
-      <c r="Q444" s="13"/>
-      <c r="R444" s="19" t="s">
-        <v>1458</v>
-      </c>
-      <c r="S444" s="19" t="s">
-        <v>1460</v>
-      </c>
-      <c r="T444" s="20" t="s">
-        <v>1461</v>
-      </c>
-      <c r="U444" s="19" t="s">
-        <v>1462</v>
-      </c>
-      <c r="V444" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W444" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X444" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y444" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z444" s="19"/>
-      <c r="AA444" s="21"/>
-      <c r="AB444" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="445" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="B444" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C444" s="24" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D444" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E444" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F444" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G444" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H444" s="39" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I444" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J444" s="27" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K444" s="25"/>
+      <c r="L444" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M444" s="27">
+        <v>3</v>
+      </c>
+      <c r="N444" s="27">
+        <v>2</v>
+      </c>
+      <c r="O444" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P444" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q444" s="27">
+        <v>22</v>
+      </c>
+      <c r="R444" s="28"/>
+      <c r="S444" s="28"/>
+      <c r="T444" s="29"/>
+      <c r="U444" s="28"/>
+      <c r="V444" s="28"/>
+      <c r="W444" s="28"/>
+      <c r="X444" s="28"/>
+      <c r="Y444" s="28"/>
+      <c r="Z444" s="28"/>
+      <c r="AA444" s="30"/>
+      <c r="AB444" s="28" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="445" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1463</v>
+        <v>1402</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1464</v>
+        <v>1403</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>1465</v>
+        <v>1404</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>28</v>
@@ -40776,33 +40865,47 @@
         <v>21</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>685</v>
+        <v>39</v>
       </c>
       <c r="H445" s="37" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="I445" s="10" t="s">
-        <v>1467</v>
-      </c>
-      <c r="J445" s="13"/>
+        <v>1406</v>
+      </c>
+      <c r="J445" s="13" t="s">
+        <v>2306</v>
+      </c>
       <c r="K445" s="2"/>
-      <c r="L445" s="13"/>
-      <c r="M445" s="13"/>
-      <c r="N445" s="13"/>
-      <c r="O445" s="13"/>
-      <c r="P445" s="13"/>
-      <c r="Q445" s="13"/>
+      <c r="L445" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M445" s="13">
+        <v>1</v>
+      </c>
+      <c r="N445" s="13">
+        <v>2</v>
+      </c>
+      <c r="O445" s="13" t="s">
+        <v>1827</v>
+      </c>
+      <c r="P445" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q445" s="13">
+        <v>14</v>
+      </c>
       <c r="R445" s="19" t="s">
-        <v>1466</v>
+        <v>1405</v>
       </c>
       <c r="S445" s="19" t="s">
-        <v>1468</v>
+        <v>1407</v>
       </c>
       <c r="T445" s="20" t="s">
-        <v>1469</v>
+        <v>1408</v>
       </c>
       <c r="U445" s="19" t="s">
-        <v>1470</v>
+        <v>1409</v>
       </c>
       <c r="V445" s="19" t="s">
         <v>21</v>
@@ -40822,84 +40925,82 @@
         <v>28</v>
       </c>
     </row>
-    <row r="446" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
+    <row r="446" spans="1:28" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A446" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E446" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G446" s="1" t="s">
+      <c r="B446" s="24" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C446" s="24" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D446" s="25" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E446" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F446" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G446" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H446" s="37" t="s">
-        <v>2058</v>
-      </c>
-      <c r="I446" s="10" t="s">
-        <v>1475</v>
-      </c>
-      <c r="J446" s="13"/>
-      <c r="K446" s="2"/>
-      <c r="L446" s="13"/>
-      <c r="M446" s="13"/>
-      <c r="N446" s="13"/>
-      <c r="O446" s="13"/>
-      <c r="P446" s="13"/>
-      <c r="Q446" s="13"/>
-      <c r="R446" s="19" t="s">
-        <v>1474</v>
-      </c>
-      <c r="S446" s="19" t="s">
-        <v>1476</v>
-      </c>
-      <c r="T446" s="20" t="s">
-        <v>1477</v>
-      </c>
-      <c r="U446" s="19" t="s">
-        <v>1478</v>
-      </c>
-      <c r="V446" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W446" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X446" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y446" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z446" s="19"/>
-      <c r="AA446" s="21"/>
-      <c r="AB446" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="447" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="H446" s="39" t="s">
+        <v>2049</v>
+      </c>
+      <c r="I446" s="26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J446" s="27" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K446" s="25"/>
+      <c r="L446" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M446" s="27">
+        <v>1</v>
+      </c>
+      <c r="N446" s="27">
+        <v>2</v>
+      </c>
+      <c r="O446" s="27" t="s">
+        <v>1827</v>
+      </c>
+      <c r="P446" s="27" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q446" s="27">
+        <v>15</v>
+      </c>
+      <c r="R446" s="28"/>
+      <c r="S446" s="28"/>
+      <c r="T446" s="29"/>
+      <c r="U446" s="28"/>
+      <c r="V446" s="28"/>
+      <c r="W446" s="28"/>
+      <c r="X446" s="28"/>
+      <c r="Y446" s="28"/>
+      <c r="Z446" s="28"/>
+      <c r="AA446" s="30"/>
+      <c r="AB446" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="447" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1479</v>
+        <v>1410</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1480</v>
+        <v>1411</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>1481</v>
+        <v>1412</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>28</v>
@@ -40908,33 +41009,47 @@
         <v>21</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="H447" s="37" t="s">
-        <v>2059</v>
+        <v>2050</v>
       </c>
       <c r="I447" s="10" t="s">
-        <v>1483</v>
-      </c>
-      <c r="J447" s="13"/>
+        <v>1414</v>
+      </c>
+      <c r="J447" s="13" t="s">
+        <v>2307</v>
+      </c>
       <c r="K447" s="2"/>
-      <c r="L447" s="13"/>
-      <c r="M447" s="13"/>
-      <c r="N447" s="13"/>
-      <c r="O447" s="13"/>
-      <c r="P447" s="13"/>
-      <c r="Q447" s="13"/>
+      <c r="L447" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M447" s="13">
+        <v>2</v>
+      </c>
+      <c r="N447" s="13">
+        <v>4</v>
+      </c>
+      <c r="O447" s="13" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P447" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q447" s="13">
+        <v>38</v>
+      </c>
       <c r="R447" s="19" t="s">
-        <v>1482</v>
+        <v>1413</v>
       </c>
       <c r="S447" s="19" t="s">
-        <v>1484</v>
+        <v>1415</v>
       </c>
       <c r="T447" s="20" t="s">
-        <v>1485</v>
+        <v>1416</v>
       </c>
       <c r="U447" s="19" t="s">
-        <v>1486</v>
+        <v>1417</v>
       </c>
       <c r="V447" s="19" t="s">
         <v>21</v>
@@ -40954,282 +41069,274 @@
         <v>28</v>
       </c>
     </row>
-    <row r="448" spans="1:28" ht="90" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
+    <row r="448" spans="1:28" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A448" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G448" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H448" s="37" t="s">
-        <v>2060</v>
-      </c>
-      <c r="I448" s="10" t="s">
-        <v>1488</v>
-      </c>
-      <c r="J448" s="13"/>
-      <c r="K448" s="2"/>
-      <c r="L448" s="13"/>
-      <c r="M448" s="13"/>
-      <c r="N448" s="13"/>
-      <c r="O448" s="13"/>
-      <c r="P448" s="13"/>
-      <c r="Q448" s="13"/>
-      <c r="R448" s="19" t="s">
-        <v>1487</v>
-      </c>
-      <c r="S448" s="19" t="s">
-        <v>1489</v>
-      </c>
-      <c r="T448" s="20" t="s">
-        <v>1490</v>
-      </c>
-      <c r="U448" s="19" t="s">
-        <v>1491</v>
-      </c>
-      <c r="V448" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W448" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X448" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y448" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z448" s="19"/>
-      <c r="AA448" s="21"/>
-      <c r="AB448" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="449" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
+      <c r="B448" s="24" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C448" s="24" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D448" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E448" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F448" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G448" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H448" s="39" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I448" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J448" s="27" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K448" s="25"/>
+      <c r="L448" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M448" s="27">
+        <v>2</v>
+      </c>
+      <c r="N448" s="27">
+        <v>4</v>
+      </c>
+      <c r="O448" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P448" s="27" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q448" s="27">
+        <v>39</v>
+      </c>
+      <c r="R448" s="28"/>
+      <c r="S448" s="28"/>
+      <c r="T448" s="29"/>
+      <c r="U448" s="28"/>
+      <c r="V448" s="28"/>
+      <c r="W448" s="28"/>
+      <c r="X448" s="28"/>
+      <c r="Y448" s="28"/>
+      <c r="Z448" s="28"/>
+      <c r="AA448" s="30"/>
+      <c r="AB448" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="449" spans="1:28" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A449" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E449" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G449" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H449" s="37" t="s">
-        <v>2061</v>
-      </c>
-      <c r="I449" s="10" t="s">
-        <v>1496</v>
-      </c>
-      <c r="J449" s="13"/>
-      <c r="K449" s="2"/>
-      <c r="L449" s="13"/>
-      <c r="M449" s="13"/>
-      <c r="N449" s="13"/>
-      <c r="O449" s="13"/>
-      <c r="P449" s="13"/>
-      <c r="Q449" s="13"/>
-      <c r="R449" s="19" t="s">
-        <v>1495</v>
-      </c>
-      <c r="S449" s="19" t="s">
-        <v>1497</v>
-      </c>
-      <c r="T449" s="20" t="s">
-        <v>1498</v>
-      </c>
-      <c r="U449" s="19" t="s">
-        <v>1499</v>
-      </c>
-      <c r="V449" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W449" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X449" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y449" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z449" s="19"/>
-      <c r="AA449" s="21"/>
-      <c r="AB449" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="450" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
+      <c r="B449" s="24" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C449" s="24" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D449" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E449" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F449" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G449" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H449" s="39" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I449" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J449" s="27" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K449" s="25"/>
+      <c r="L449" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M449" s="27">
+        <v>2</v>
+      </c>
+      <c r="N449" s="27">
+        <v>4</v>
+      </c>
+      <c r="O449" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P449" s="27" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q449" s="27">
+        <v>40</v>
+      </c>
+      <c r="R449" s="28"/>
+      <c r="S449" s="28"/>
+      <c r="T449" s="29"/>
+      <c r="U449" s="28"/>
+      <c r="V449" s="28"/>
+      <c r="W449" s="28"/>
+      <c r="X449" s="28"/>
+      <c r="Y449" s="28"/>
+      <c r="Z449" s="28"/>
+      <c r="AA449" s="30"/>
+      <c r="AB449" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="450" spans="1:28" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A450" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G450" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H450" s="37" t="s">
-        <v>2062</v>
-      </c>
-      <c r="I450" s="10" t="s">
-        <v>1504</v>
-      </c>
-      <c r="J450" s="13"/>
-      <c r="K450" s="2"/>
-      <c r="L450" s="13"/>
-      <c r="M450" s="13"/>
-      <c r="N450" s="13"/>
-      <c r="O450" s="13"/>
-      <c r="P450" s="13"/>
-      <c r="Q450" s="13"/>
-      <c r="R450" s="19" t="s">
-        <v>1503</v>
-      </c>
-      <c r="S450" s="19" t="s">
-        <v>1505</v>
-      </c>
-      <c r="T450" s="20" t="s">
-        <v>1506</v>
-      </c>
-      <c r="U450" s="19" t="s">
-        <v>1507</v>
-      </c>
-      <c r="V450" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W450" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X450" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y450" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z450" s="19"/>
-      <c r="AA450" s="21"/>
-      <c r="AB450" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="451" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
+      <c r="B450" s="24" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C450" s="24" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D450" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E450" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F450" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G450" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H450" s="39" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I450" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J450" s="27" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K450" s="25"/>
+      <c r="L450" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M450" s="27">
+        <v>2</v>
+      </c>
+      <c r="N450" s="27">
+        <v>4</v>
+      </c>
+      <c r="O450" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P450" s="27" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q450" s="27">
+        <v>41</v>
+      </c>
+      <c r="R450" s="28"/>
+      <c r="S450" s="28"/>
+      <c r="T450" s="29"/>
+      <c r="U450" s="28"/>
+      <c r="V450" s="28"/>
+      <c r="W450" s="28"/>
+      <c r="X450" s="28"/>
+      <c r="Y450" s="28"/>
+      <c r="Z450" s="28"/>
+      <c r="AA450" s="30"/>
+      <c r="AB450" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="451" spans="1:28" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A451" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E451" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G451" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="H451" s="37" t="s">
-        <v>2063</v>
-      </c>
-      <c r="I451" s="10" t="s">
-        <v>1512</v>
-      </c>
-      <c r="J451" s="13"/>
-      <c r="K451" s="2"/>
-      <c r="L451" s="13"/>
-      <c r="M451" s="13"/>
-      <c r="N451" s="13"/>
-      <c r="O451" s="13"/>
-      <c r="P451" s="13"/>
-      <c r="Q451" s="13"/>
-      <c r="R451" s="19" t="s">
-        <v>1511</v>
-      </c>
-      <c r="S451" s="19" t="s">
-        <v>1513</v>
-      </c>
-      <c r="T451" s="20" t="s">
-        <v>1514</v>
-      </c>
-      <c r="U451" s="19" t="s">
-        <v>1515</v>
-      </c>
-      <c r="V451" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W451" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X451" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y451" s="19" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Z451" s="19"/>
-      <c r="AA451" s="21"/>
-      <c r="AB451" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="452" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="B451" s="24" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C451" s="24" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D451" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E451" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F451" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G451" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H451" s="39" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I451" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J451" s="27" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K451" s="25"/>
+      <c r="L451" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M451" s="27">
+        <v>2</v>
+      </c>
+      <c r="N451" s="27">
+        <v>1</v>
+      </c>
+      <c r="O451" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P451" s="27" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q451" s="27">
+        <v>42</v>
+      </c>
+      <c r="R451" s="28"/>
+      <c r="S451" s="28"/>
+      <c r="T451" s="29"/>
+      <c r="U451" s="28"/>
+      <c r="V451" s="28"/>
+      <c r="W451" s="28"/>
+      <c r="X451" s="28"/>
+      <c r="Y451" s="28"/>
+      <c r="Z451" s="28"/>
+      <c r="AA451" s="30"/>
+      <c r="AB451" s="28" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="452" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1516</v>
+        <v>1418</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1517</v>
+        <v>1419</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1518</v>
+        <v>1420</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>28</v>
@@ -41238,13 +41345,13 @@
         <v>21</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>39</v>
+        <v>440</v>
       </c>
       <c r="H452" s="37" t="s">
-        <v>2064</v>
+        <v>2051</v>
       </c>
       <c r="I452" s="10" t="s">
-        <v>1520</v>
+        <v>1422</v>
       </c>
       <c r="J452" s="13"/>
       <c r="K452" s="2"/>
@@ -41255,16 +41362,16 @@
       <c r="P452" s="13"/>
       <c r="Q452" s="13"/>
       <c r="R452" s="19" t="s">
-        <v>1519</v>
+        <v>1421</v>
       </c>
       <c r="S452" s="19" t="s">
-        <v>1521</v>
+        <v>1423</v>
       </c>
       <c r="T452" s="20" t="s">
-        <v>1522</v>
+        <v>1424</v>
       </c>
       <c r="U452" s="19" t="s">
-        <v>1523</v>
+        <v>1425</v>
       </c>
       <c r="V452" s="19" t="s">
         <v>21</v>
@@ -41284,18 +41391,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1524</v>
+        <v>1426</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1525</v>
+        <v>1427</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1526</v>
+        <v>1428</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>28</v>
@@ -41304,16 +41411,20 @@
         <v>21</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>640</v>
+        <v>201</v>
       </c>
       <c r="H453" s="37" t="s">
-        <v>2065</v>
+        <v>2052</v>
       </c>
       <c r="I453" s="10" t="s">
-        <v>1528</v>
-      </c>
-      <c r="J453" s="13"/>
-      <c r="K453" s="2"/>
+        <v>1430</v>
+      </c>
+      <c r="J453" s="13" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K453" s="7" t="s">
+        <v>1814</v>
+      </c>
       <c r="L453" s="13"/>
       <c r="M453" s="13"/>
       <c r="N453" s="13"/>
@@ -41321,16 +41432,16 @@
       <c r="P453" s="13"/>
       <c r="Q453" s="13"/>
       <c r="R453" s="19" t="s">
-        <v>1527</v>
+        <v>1429</v>
       </c>
       <c r="S453" s="19" t="s">
-        <v>1529</v>
+        <v>1431</v>
       </c>
       <c r="T453" s="20" t="s">
-        <v>1530</v>
+        <v>1432</v>
       </c>
       <c r="U453" s="19" t="s">
-        <v>1531</v>
+        <v>1433</v>
       </c>
       <c r="V453" s="19" t="s">
         <v>21</v>
@@ -41355,13 +41466,13 @@
         <v>636</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1532</v>
+        <v>1426</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1533</v>
+        <v>1427</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>1534</v>
+        <v>1428</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>28</v>
@@ -41370,16 +41481,20 @@
         <v>21</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="H454" s="37" t="s">
-        <v>2066</v>
+        <v>2053</v>
       </c>
       <c r="I454" s="10" t="s">
-        <v>1536</v>
-      </c>
-      <c r="J454" s="13"/>
-      <c r="K454" s="2"/>
+        <v>1435</v>
+      </c>
+      <c r="J454" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="K454" s="7" t="s">
+        <v>1808</v>
+      </c>
       <c r="L454" s="13"/>
       <c r="M454" s="13"/>
       <c r="N454" s="13"/>
@@ -41387,16 +41502,16 @@
       <c r="P454" s="13"/>
       <c r="Q454" s="13"/>
       <c r="R454" s="19" t="s">
-        <v>1535</v>
+        <v>1434</v>
       </c>
       <c r="S454" s="19" t="s">
-        <v>1537</v>
+        <v>1436</v>
       </c>
       <c r="T454" s="20" t="s">
-        <v>1538</v>
+        <v>1437</v>
       </c>
       <c r="U454" s="19" t="s">
-        <v>1539</v>
+        <v>1438</v>
       </c>
       <c r="V454" s="19" t="s">
         <v>21</v>
@@ -41416,18 +41531,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="455" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1532</v>
+        <v>1439</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1533</v>
+        <v>1440</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1534</v>
+        <v>1441</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>28</v>
@@ -41439,10 +41554,10 @@
         <v>324</v>
       </c>
       <c r="H455" s="37" t="s">
-        <v>2067</v>
+        <v>2054</v>
       </c>
       <c r="I455" s="10" t="s">
-        <v>1541</v>
+        <v>1443</v>
       </c>
       <c r="J455" s="13"/>
       <c r="K455" s="2"/>
@@ -41453,16 +41568,16 @@
       <c r="P455" s="13"/>
       <c r="Q455" s="13"/>
       <c r="R455" s="19" t="s">
-        <v>1540</v>
+        <v>1442</v>
       </c>
       <c r="S455" s="19" t="s">
-        <v>1542</v>
+        <v>1444</v>
       </c>
       <c r="T455" s="20" t="s">
-        <v>1543</v>
+        <v>1445</v>
       </c>
       <c r="U455" s="19" t="s">
-        <v>1544</v>
+        <v>1446</v>
       </c>
       <c r="V455" s="19" t="s">
         <v>21</v>
@@ -41487,13 +41602,13 @@
         <v>636</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1532</v>
+        <v>1447</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1533</v>
+        <v>1448</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1534</v>
+        <v>1449</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>28</v>
@@ -41502,13 +41617,13 @@
         <v>21</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>324</v>
+        <v>22</v>
       </c>
       <c r="H456" s="37" t="s">
-        <v>2068</v>
+        <v>2055</v>
       </c>
       <c r="I456" s="10" t="s">
-        <v>1546</v>
+        <v>1451</v>
       </c>
       <c r="J456" s="13"/>
       <c r="K456" s="2"/>
@@ -41519,16 +41634,16 @@
       <c r="P456" s="13"/>
       <c r="Q456" s="13"/>
       <c r="R456" s="19" t="s">
-        <v>1545</v>
+        <v>1450</v>
       </c>
       <c r="S456" s="19" t="s">
-        <v>1547</v>
+        <v>1452</v>
       </c>
       <c r="T456" s="20" t="s">
-        <v>1548</v>
+        <v>1453</v>
       </c>
       <c r="U456" s="19" t="s">
-        <v>1549</v>
+        <v>1454</v>
       </c>
       <c r="V456" s="19" t="s">
         <v>21</v>
@@ -41548,18 +41663,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1555</v>
+        <v>1455</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1556</v>
+        <v>1456</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1557</v>
+        <v>1457</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>28</v>
@@ -41568,13 +41683,13 @@
         <v>21</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>685</v>
+        <v>39</v>
       </c>
       <c r="H457" s="37" t="s">
-        <v>2069</v>
+        <v>2056</v>
       </c>
       <c r="I457" s="10" t="s">
-        <v>1559</v>
+        <v>1459</v>
       </c>
       <c r="J457" s="13"/>
       <c r="K457" s="2"/>
@@ -41585,16 +41700,16 @@
       <c r="P457" s="13"/>
       <c r="Q457" s="13"/>
       <c r="R457" s="19" t="s">
-        <v>1558</v>
+        <v>1458</v>
       </c>
       <c r="S457" s="19" t="s">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="T457" s="20" t="s">
-        <v>1561</v>
+        <v>1461</v>
       </c>
       <c r="U457" s="19" t="s">
-        <v>1562</v>
+        <v>1462</v>
       </c>
       <c r="V457" s="19" t="s">
         <v>21</v>
@@ -41614,18 +41729,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="458" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1555</v>
+        <v>1463</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1556</v>
+        <v>1464</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1557</v>
+        <v>1465</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>28</v>
@@ -41637,10 +41752,10 @@
         <v>685</v>
       </c>
       <c r="H458" s="37" t="s">
-        <v>2070</v>
+        <v>2057</v>
       </c>
       <c r="I458" s="10" t="s">
-        <v>1564</v>
+        <v>1467</v>
       </c>
       <c r="J458" s="13"/>
       <c r="K458" s="2"/>
@@ -41651,16 +41766,16 @@
       <c r="P458" s="13"/>
       <c r="Q458" s="13"/>
       <c r="R458" s="19" t="s">
-        <v>1563</v>
+        <v>1466</v>
       </c>
       <c r="S458" s="19" t="s">
-        <v>1565</v>
+        <v>1468</v>
       </c>
       <c r="T458" s="20" t="s">
-        <v>1566</v>
+        <v>1469</v>
       </c>
       <c r="U458" s="19" t="s">
-        <v>1567</v>
+        <v>1470</v>
       </c>
       <c r="V458" s="19" t="s">
         <v>21</v>
@@ -41680,18 +41795,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="459" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1568</v>
+        <v>1471</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1569</v>
+        <v>1472</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>1570</v>
+        <v>1473</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>28</v>
@@ -41703,10 +41818,10 @@
         <v>39</v>
       </c>
       <c r="H459" s="37" t="s">
-        <v>2071</v>
+        <v>2058</v>
       </c>
       <c r="I459" s="10" t="s">
-        <v>1572</v>
+        <v>1475</v>
       </c>
       <c r="J459" s="13"/>
       <c r="K459" s="2"/>
@@ -41717,16 +41832,16 @@
       <c r="P459" s="13"/>
       <c r="Q459" s="13"/>
       <c r="R459" s="19" t="s">
-        <v>1571</v>
+        <v>1474</v>
       </c>
       <c r="S459" s="19" t="s">
-        <v>1573</v>
+        <v>1476</v>
       </c>
       <c r="T459" s="20" t="s">
-        <v>1574</v>
+        <v>1477</v>
       </c>
       <c r="U459" s="19" t="s">
-        <v>1575</v>
+        <v>1478</v>
       </c>
       <c r="V459" s="19" t="s">
         <v>21</v>
@@ -41746,18 +41861,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1576</v>
+        <v>1479</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1577</v>
+        <v>1480</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1578</v>
+        <v>1481</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>28</v>
@@ -41766,13 +41881,13 @@
         <v>21</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="H460" s="37" t="s">
-        <v>2072</v>
+        <v>2059</v>
       </c>
       <c r="I460" s="10" t="s">
-        <v>1580</v>
+        <v>1483</v>
       </c>
       <c r="J460" s="13"/>
       <c r="K460" s="2"/>
@@ -41783,16 +41898,16 @@
       <c r="P460" s="13"/>
       <c r="Q460" s="13"/>
       <c r="R460" s="19" t="s">
-        <v>1579</v>
+        <v>1482</v>
       </c>
       <c r="S460" s="19" t="s">
-        <v>1581</v>
+        <v>1484</v>
       </c>
       <c r="T460" s="20" t="s">
-        <v>1582</v>
+        <v>1485</v>
       </c>
       <c r="U460" s="19" t="s">
-        <v>1583</v>
+        <v>1486</v>
       </c>
       <c r="V460" s="19" t="s">
         <v>21</v>
@@ -41812,18 +41927,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1584</v>
+        <v>1479</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1585</v>
+        <v>1480</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1586</v>
+        <v>1481</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>28</v>
@@ -41832,13 +41947,13 @@
         <v>21</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>685</v>
+        <v>440</v>
       </c>
       <c r="H461" s="37" t="s">
-        <v>2073</v>
+        <v>2060</v>
       </c>
       <c r="I461" s="10" t="s">
-        <v>1588</v>
+        <v>1488</v>
       </c>
       <c r="J461" s="13"/>
       <c r="K461" s="2"/>
@@ -41849,16 +41964,16 @@
       <c r="P461" s="13"/>
       <c r="Q461" s="13"/>
       <c r="R461" s="19" t="s">
-        <v>1587</v>
+        <v>1487</v>
       </c>
       <c r="S461" s="19" t="s">
-        <v>1589</v>
+        <v>1489</v>
       </c>
       <c r="T461" s="20" t="s">
-        <v>1590</v>
+        <v>1490</v>
       </c>
       <c r="U461" s="19" t="s">
-        <v>1591</v>
+        <v>1491</v>
       </c>
       <c r="V461" s="19" t="s">
         <v>21</v>
@@ -41878,18 +41993,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="462" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1592</v>
+        <v>1492</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1593</v>
+        <v>1493</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1594</v>
+        <v>1494</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>28</v>
@@ -41901,10 +42016,10 @@
         <v>48</v>
       </c>
       <c r="H462" s="37" t="s">
-        <v>2074</v>
+        <v>2061</v>
       </c>
       <c r="I462" s="10" t="s">
-        <v>1596</v>
+        <v>1496</v>
       </c>
       <c r="J462" s="13"/>
       <c r="K462" s="2"/>
@@ -41915,16 +42030,16 @@
       <c r="P462" s="13"/>
       <c r="Q462" s="13"/>
       <c r="R462" s="19" t="s">
-        <v>1595</v>
+        <v>1495</v>
       </c>
       <c r="S462" s="19" t="s">
-        <v>1597</v>
+        <v>1497</v>
       </c>
       <c r="T462" s="20" t="s">
-        <v>1598</v>
+        <v>1498</v>
       </c>
       <c r="U462" s="19" t="s">
-        <v>1599</v>
+        <v>1499</v>
       </c>
       <c r="V462" s="19" t="s">
         <v>21</v>
@@ -41944,18 +42059,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="463" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1601</v>
+        <v>1501</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1602</v>
+        <v>1502</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>28</v>
@@ -41964,13 +42079,13 @@
         <v>21</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H463" s="37" t="s">
-        <v>2075</v>
+        <v>2062</v>
       </c>
       <c r="I463" s="10" t="s">
-        <v>1604</v>
+        <v>1504</v>
       </c>
       <c r="J463" s="13"/>
       <c r="K463" s="2"/>
@@ -41981,16 +42096,16 @@
       <c r="P463" s="13"/>
       <c r="Q463" s="13"/>
       <c r="R463" s="19" t="s">
-        <v>1603</v>
+        <v>1503</v>
       </c>
       <c r="S463" s="19" t="s">
-        <v>1605</v>
+        <v>1505</v>
       </c>
       <c r="T463" s="20" t="s">
-        <v>1606</v>
+        <v>1506</v>
       </c>
       <c r="U463" s="19" t="s">
-        <v>1607</v>
+        <v>1507</v>
       </c>
       <c r="V463" s="19" t="s">
         <v>21</v>
@@ -42010,18 +42125,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="464" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1608</v>
+        <v>1508</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1609</v>
+        <v>1509</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1610</v>
+        <v>1510</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>28</v>
@@ -42030,20 +42145,16 @@
         <v>21</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>201</v>
+        <v>685</v>
       </c>
       <c r="H464" s="37" t="s">
-        <v>2076</v>
+        <v>2063</v>
       </c>
       <c r="I464" s="10" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J464" s="13" t="s">
-        <v>1804</v>
-      </c>
-      <c r="K464" s="7" t="s">
-        <v>1808</v>
-      </c>
+        <v>1512</v>
+      </c>
+      <c r="J464" s="13"/>
+      <c r="K464" s="2"/>
       <c r="L464" s="13"/>
       <c r="M464" s="13"/>
       <c r="N464" s="13"/>
@@ -42051,16 +42162,16 @@
       <c r="P464" s="13"/>
       <c r="Q464" s="13"/>
       <c r="R464" s="19" t="s">
-        <v>1611</v>
+        <v>1511</v>
       </c>
       <c r="S464" s="19" t="s">
-        <v>1613</v>
+        <v>1513</v>
       </c>
       <c r="T464" s="20" t="s">
-        <v>1614</v>
+        <v>1514</v>
       </c>
       <c r="U464" s="19" t="s">
-        <v>1615</v>
+        <v>1515</v>
       </c>
       <c r="V464" s="19" t="s">
         <v>21</v>
@@ -42080,18 +42191,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="465" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1616</v>
+        <v>1516</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1617</v>
+        <v>1517</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>1618</v>
+        <v>1518</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>28</v>
@@ -42100,13 +42211,13 @@
         <v>21</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="H465" s="37" t="s">
-        <v>2077</v>
+        <v>2064</v>
       </c>
       <c r="I465" s="10" t="s">
-        <v>1620</v>
+        <v>1520</v>
       </c>
       <c r="J465" s="13"/>
       <c r="K465" s="2"/>
@@ -42117,16 +42228,16 @@
       <c r="P465" s="13"/>
       <c r="Q465" s="13"/>
       <c r="R465" s="19" t="s">
-        <v>1619</v>
+        <v>1519</v>
       </c>
       <c r="S465" s="19" t="s">
-        <v>1621</v>
+        <v>1521</v>
       </c>
       <c r="T465" s="20" t="s">
-        <v>1622</v>
+        <v>1522</v>
       </c>
       <c r="U465" s="19" t="s">
-        <v>1623</v>
+        <v>1523</v>
       </c>
       <c r="V465" s="19" t="s">
         <v>21</v>
@@ -42146,18 +42257,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="466" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1624</v>
+        <v>1524</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1625</v>
+        <v>1525</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1626</v>
+        <v>1526</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>28</v>
@@ -42166,13 +42277,13 @@
         <v>21</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>39</v>
+        <v>640</v>
       </c>
       <c r="H466" s="37" t="s">
-        <v>2078</v>
+        <v>2065</v>
       </c>
       <c r="I466" s="10" t="s">
-        <v>1628</v>
+        <v>1528</v>
       </c>
       <c r="J466" s="13"/>
       <c r="K466" s="2"/>
@@ -42183,16 +42294,16 @@
       <c r="P466" s="13"/>
       <c r="Q466" s="13"/>
       <c r="R466" s="19" t="s">
-        <v>1627</v>
+        <v>1527</v>
       </c>
       <c r="S466" s="19" t="s">
-        <v>1629</v>
+        <v>1529</v>
       </c>
       <c r="T466" s="20" t="s">
-        <v>1630</v>
+        <v>1530</v>
       </c>
       <c r="U466" s="19" t="s">
-        <v>1631</v>
+        <v>1531</v>
       </c>
       <c r="V466" s="19" t="s">
         <v>21</v>
@@ -42212,18 +42323,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="467" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1637</v>
+        <v>1532</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1638</v>
+        <v>1533</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1639</v>
+        <v>1534</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>28</v>
@@ -42232,13 +42343,13 @@
         <v>21</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="H467" s="37" t="s">
-        <v>2079</v>
+        <v>2066</v>
       </c>
       <c r="I467" s="10" t="s">
-        <v>1641</v>
+        <v>1536</v>
       </c>
       <c r="J467" s="13"/>
       <c r="K467" s="2"/>
@@ -42249,16 +42360,16 @@
       <c r="P467" s="13"/>
       <c r="Q467" s="13"/>
       <c r="R467" s="19" t="s">
-        <v>1640</v>
+        <v>1535</v>
       </c>
       <c r="S467" s="19" t="s">
-        <v>1642</v>
+        <v>1537</v>
       </c>
       <c r="T467" s="20" t="s">
-        <v>1643</v>
+        <v>1538</v>
       </c>
       <c r="U467" s="19" t="s">
-        <v>1644</v>
+        <v>1539</v>
       </c>
       <c r="V467" s="19" t="s">
         <v>21</v>
@@ -42278,18 +42389,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="468" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1637</v>
+        <v>1532</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1638</v>
+        <v>1533</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1639</v>
+        <v>1534</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>28</v>
@@ -42298,13 +42409,13 @@
         <v>21</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="H468" s="37" t="s">
-        <v>2080</v>
+        <v>2067</v>
       </c>
       <c r="I468" s="10" t="s">
-        <v>1646</v>
+        <v>1541</v>
       </c>
       <c r="J468" s="13"/>
       <c r="K468" s="2"/>
@@ -42315,16 +42426,16 @@
       <c r="P468" s="13"/>
       <c r="Q468" s="13"/>
       <c r="R468" s="19" t="s">
-        <v>1645</v>
+        <v>1540</v>
       </c>
       <c r="S468" s="19" t="s">
-        <v>1647</v>
+        <v>1542</v>
       </c>
       <c r="T468" s="20" t="s">
-        <v>1648</v>
+        <v>1543</v>
       </c>
       <c r="U468" s="19" t="s">
-        <v>1649</v>
+        <v>1544</v>
       </c>
       <c r="V468" s="19" t="s">
         <v>21</v>
@@ -42344,18 +42455,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="469" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1650</v>
+        <v>1532</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1651</v>
+        <v>1533</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1652</v>
+        <v>1534</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>28</v>
@@ -42364,13 +42475,13 @@
         <v>21</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="H469" s="37" t="s">
-        <v>2081</v>
+        <v>2068</v>
       </c>
       <c r="I469" s="10" t="s">
-        <v>1654</v>
+        <v>1546</v>
       </c>
       <c r="J469" s="13"/>
       <c r="K469" s="2"/>
@@ -42381,16 +42492,16 @@
       <c r="P469" s="13"/>
       <c r="Q469" s="13"/>
       <c r="R469" s="19" t="s">
-        <v>1653</v>
+        <v>1545</v>
       </c>
       <c r="S469" s="19" t="s">
-        <v>1655</v>
+        <v>1547</v>
       </c>
       <c r="T469" s="20" t="s">
-        <v>1656</v>
+        <v>1548</v>
       </c>
       <c r="U469" s="19" t="s">
-        <v>1657</v>
+        <v>1549</v>
       </c>
       <c r="V469" s="19" t="s">
         <v>21</v>
@@ -42410,18 +42521,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="470" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1658</v>
+        <v>1555</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1659</v>
+        <v>1556</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1660</v>
+        <v>1557</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>28</v>
@@ -42430,13 +42541,13 @@
         <v>21</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>440</v>
+        <v>685</v>
       </c>
       <c r="H470" s="37" t="s">
-        <v>2082</v>
+        <v>2069</v>
       </c>
       <c r="I470" s="10" t="s">
-        <v>1662</v>
+        <v>1559</v>
       </c>
       <c r="J470" s="13"/>
       <c r="K470" s="2"/>
@@ -42447,16 +42558,16 @@
       <c r="P470" s="13"/>
       <c r="Q470" s="13"/>
       <c r="R470" s="19" t="s">
-        <v>1661</v>
+        <v>1558</v>
       </c>
       <c r="S470" s="19" t="s">
-        <v>1663</v>
+        <v>1560</v>
       </c>
       <c r="T470" s="20" t="s">
-        <v>1664</v>
+        <v>1561</v>
       </c>
       <c r="U470" s="19" t="s">
-        <v>1665</v>
+        <v>1562</v>
       </c>
       <c r="V470" s="19" t="s">
         <v>21</v>
@@ -42476,18 +42587,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="471" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1666</v>
+        <v>1555</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1668</v>
+        <v>1557</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>28</v>
@@ -42496,13 +42607,13 @@
         <v>21</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>440</v>
+        <v>685</v>
       </c>
       <c r="H471" s="37" t="s">
-        <v>2083</v>
+        <v>2070</v>
       </c>
       <c r="I471" s="10" t="s">
-        <v>1670</v>
+        <v>1564</v>
       </c>
       <c r="J471" s="13"/>
       <c r="K471" s="2"/>
@@ -42513,16 +42624,16 @@
       <c r="P471" s="13"/>
       <c r="Q471" s="13"/>
       <c r="R471" s="19" t="s">
-        <v>1669</v>
+        <v>1563</v>
       </c>
       <c r="S471" s="19" t="s">
-        <v>1671</v>
+        <v>1565</v>
       </c>
       <c r="T471" s="20" t="s">
-        <v>1672</v>
+        <v>1566</v>
       </c>
       <c r="U471" s="19" t="s">
-        <v>1673</v>
+        <v>1567</v>
       </c>
       <c r="V471" s="19" t="s">
         <v>21</v>
@@ -42542,18 +42653,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="472" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1674</v>
+        <v>1568</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1675</v>
+        <v>1569</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1676</v>
+        <v>1570</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>28</v>
@@ -42562,13 +42673,13 @@
         <v>21</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H472" s="37" t="s">
-        <v>2084</v>
+        <v>2071</v>
       </c>
       <c r="I472" s="10" t="s">
-        <v>1678</v>
+        <v>1572</v>
       </c>
       <c r="J472" s="13"/>
       <c r="K472" s="2"/>
@@ -42579,16 +42690,16 @@
       <c r="P472" s="13"/>
       <c r="Q472" s="13"/>
       <c r="R472" s="19" t="s">
-        <v>1677</v>
+        <v>1571</v>
       </c>
       <c r="S472" s="19" t="s">
-        <v>1679</v>
+        <v>1573</v>
       </c>
       <c r="T472" s="20" t="s">
-        <v>1680</v>
+        <v>1574</v>
       </c>
       <c r="U472" s="19" t="s">
-        <v>1681</v>
+        <v>1575</v>
       </c>
       <c r="V472" s="19" t="s">
         <v>21</v>
@@ -42608,18 +42719,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="473" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1682</v>
+        <v>1576</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1683</v>
+        <v>1577</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1684</v>
+        <v>1578</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>28</v>
@@ -42628,13 +42739,13 @@
         <v>21</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>324</v>
+        <v>22</v>
       </c>
       <c r="H473" s="37" t="s">
-        <v>2085</v>
+        <v>2072</v>
       </c>
       <c r="I473" s="10" t="s">
-        <v>1686</v>
+        <v>1580</v>
       </c>
       <c r="J473" s="13"/>
       <c r="K473" s="2"/>
@@ -42645,16 +42756,16 @@
       <c r="P473" s="13"/>
       <c r="Q473" s="13"/>
       <c r="R473" s="19" t="s">
-        <v>1685</v>
+        <v>1579</v>
       </c>
       <c r="S473" s="19" t="s">
-        <v>1687</v>
+        <v>1581</v>
       </c>
       <c r="T473" s="20" t="s">
-        <v>1688</v>
+        <v>1582</v>
       </c>
       <c r="U473" s="19" t="s">
-        <v>1689</v>
+        <v>1583</v>
       </c>
       <c r="V473" s="19" t="s">
         <v>21</v>
@@ -42674,18 +42785,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="474" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1682</v>
+        <v>1584</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1684</v>
+        <v>1586</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>28</v>
@@ -42694,13 +42805,13 @@
         <v>21</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>324</v>
+        <v>685</v>
       </c>
       <c r="H474" s="37" t="s">
-        <v>2086</v>
+        <v>2073</v>
       </c>
       <c r="I474" s="10" t="s">
-        <v>1691</v>
+        <v>1588</v>
       </c>
       <c r="J474" s="13"/>
       <c r="K474" s="2"/>
@@ -42711,16 +42822,16 @@
       <c r="P474" s="13"/>
       <c r="Q474" s="13"/>
       <c r="R474" s="19" t="s">
-        <v>1690</v>
+        <v>1587</v>
       </c>
       <c r="S474" s="19" t="s">
-        <v>1692</v>
+        <v>1589</v>
       </c>
       <c r="T474" s="20" t="s">
-        <v>1693</v>
+        <v>1590</v>
       </c>
       <c r="U474" s="19" t="s">
-        <v>1694</v>
+        <v>1591</v>
       </c>
       <c r="V474" s="19" t="s">
         <v>21</v>
@@ -42740,18 +42851,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="475" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1695</v>
+        <v>1592</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1696</v>
+        <v>1593</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1697</v>
+        <v>1594</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>28</v>
@@ -42763,10 +42874,10 @@
         <v>48</v>
       </c>
       <c r="H475" s="37" t="s">
-        <v>2087</v>
+        <v>2074</v>
       </c>
       <c r="I475" s="10" t="s">
-        <v>1699</v>
+        <v>1596</v>
       </c>
       <c r="J475" s="13"/>
       <c r="K475" s="2"/>
@@ -42777,16 +42888,16 @@
       <c r="P475" s="13"/>
       <c r="Q475" s="13"/>
       <c r="R475" s="19" t="s">
-        <v>1698</v>
+        <v>1595</v>
       </c>
       <c r="S475" s="19" t="s">
-        <v>1700</v>
+        <v>1597</v>
       </c>
       <c r="T475" s="20" t="s">
-        <v>1701</v>
+        <v>1598</v>
       </c>
       <c r="U475" s="19" t="s">
-        <v>1702</v>
+        <v>1599</v>
       </c>
       <c r="V475" s="19" t="s">
         <v>21</v>
@@ -42811,13 +42922,13 @@
         <v>636</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1703</v>
+        <v>1600</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1704</v>
+        <v>1601</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1705</v>
+        <v>1602</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>28</v>
@@ -42826,13 +42937,13 @@
         <v>21</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>440</v>
+        <v>48</v>
       </c>
       <c r="H476" s="37" t="s">
-        <v>2088</v>
+        <v>2075</v>
       </c>
       <c r="I476" s="10" t="s">
-        <v>1707</v>
+        <v>1604</v>
       </c>
       <c r="J476" s="13"/>
       <c r="K476" s="2"/>
@@ -42843,16 +42954,16 @@
       <c r="P476" s="13"/>
       <c r="Q476" s="13"/>
       <c r="R476" s="19" t="s">
-        <v>1706</v>
+        <v>1603</v>
       </c>
       <c r="S476" s="19" t="s">
-        <v>1708</v>
+        <v>1605</v>
       </c>
       <c r="T476" s="20" t="s">
-        <v>1709</v>
+        <v>1606</v>
       </c>
       <c r="U476" s="19" t="s">
-        <v>1710</v>
+        <v>1607</v>
       </c>
       <c r="V476" s="19" t="s">
         <v>21</v>
@@ -42872,18 +42983,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="477" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1711</v>
+        <v>1608</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1712</v>
+        <v>1609</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1713</v>
+        <v>1610</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>28</v>
@@ -42892,16 +43003,20 @@
         <v>21</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="H477" s="37" t="s">
-        <v>2089</v>
+        <v>2076</v>
       </c>
       <c r="I477" s="10" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J477" s="13"/>
-      <c r="K477" s="2"/>
+        <v>1612</v>
+      </c>
+      <c r="J477" s="13" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K477" s="7" t="s">
+        <v>1808</v>
+      </c>
       <c r="L477" s="13"/>
       <c r="M477" s="13"/>
       <c r="N477" s="13"/>
@@ -42909,16 +43024,16 @@
       <c r="P477" s="13"/>
       <c r="Q477" s="13"/>
       <c r="R477" s="19" t="s">
-        <v>1714</v>
+        <v>1611</v>
       </c>
       <c r="S477" s="19" t="s">
-        <v>1716</v>
+        <v>1613</v>
       </c>
       <c r="T477" s="20" t="s">
-        <v>1717</v>
+        <v>1614</v>
       </c>
       <c r="U477" s="19" t="s">
-        <v>1718</v>
+        <v>1615</v>
       </c>
       <c r="V477" s="19" t="s">
         <v>21</v>
@@ -42943,13 +43058,13 @@
         <v>636</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1719</v>
+        <v>1616</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1720</v>
+        <v>1617</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1721</v>
+        <v>1618</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>28</v>
@@ -42958,13 +43073,13 @@
         <v>21</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="H478" s="37" t="s">
-        <v>2090</v>
+        <v>2077</v>
       </c>
       <c r="I478" s="10" t="s">
-        <v>1723</v>
+        <v>1620</v>
       </c>
       <c r="J478" s="13"/>
       <c r="K478" s="2"/>
@@ -42975,16 +43090,16 @@
       <c r="P478" s="13"/>
       <c r="Q478" s="13"/>
       <c r="R478" s="19" t="s">
-        <v>1722</v>
+        <v>1619</v>
       </c>
       <c r="S478" s="19" t="s">
-        <v>1724</v>
+        <v>1621</v>
       </c>
       <c r="T478" s="20" t="s">
-        <v>1725</v>
+        <v>1622</v>
       </c>
       <c r="U478" s="19" t="s">
-        <v>1726</v>
+        <v>1623</v>
       </c>
       <c r="V478" s="19" t="s">
         <v>21</v>
@@ -43004,18 +43119,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1719</v>
+        <v>1624</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1720</v>
+        <v>1625</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1721</v>
+        <v>1626</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>28</v>
@@ -43024,13 +43139,13 @@
         <v>21</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H479" s="37" t="s">
-        <v>2091</v>
+        <v>2078</v>
       </c>
       <c r="I479" s="10" t="s">
-        <v>1728</v>
+        <v>1628</v>
       </c>
       <c r="J479" s="13"/>
       <c r="K479" s="2"/>
@@ -43041,16 +43156,16 @@
       <c r="P479" s="13"/>
       <c r="Q479" s="13"/>
       <c r="R479" s="19" t="s">
-        <v>1727</v>
+        <v>1627</v>
       </c>
       <c r="S479" s="19" t="s">
-        <v>1729</v>
+        <v>1629</v>
       </c>
       <c r="T479" s="20" t="s">
-        <v>1730</v>
+        <v>1630</v>
       </c>
       <c r="U479" s="19" t="s">
-        <v>1731</v>
+        <v>1631</v>
       </c>
       <c r="V479" s="19" t="s">
         <v>21</v>
@@ -43075,13 +43190,13 @@
         <v>636</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1737</v>
+        <v>1637</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1738</v>
+        <v>1638</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1739</v>
+        <v>1639</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>28</v>
@@ -43090,13 +43205,13 @@
         <v>21</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="H480" s="37" t="s">
-        <v>2092</v>
+        <v>2079</v>
       </c>
       <c r="I480" s="10" t="s">
-        <v>1741</v>
+        <v>1641</v>
       </c>
       <c r="J480" s="13"/>
       <c r="K480" s="2"/>
@@ -43107,16 +43222,16 @@
       <c r="P480" s="13"/>
       <c r="Q480" s="13"/>
       <c r="R480" s="19" t="s">
-        <v>1740</v>
+        <v>1640</v>
       </c>
       <c r="S480" s="19" t="s">
-        <v>1742</v>
+        <v>1642</v>
       </c>
       <c r="T480" s="20" t="s">
-        <v>1743</v>
+        <v>1643</v>
       </c>
       <c r="U480" s="19" t="s">
-        <v>1744</v>
+        <v>1644</v>
       </c>
       <c r="V480" s="19" t="s">
         <v>21</v>
@@ -43141,13 +43256,13 @@
         <v>636</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1737</v>
+        <v>1637</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1738</v>
+        <v>1638</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1739</v>
+        <v>1639</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>28</v>
@@ -43156,13 +43271,13 @@
         <v>21</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="H481" s="37" t="s">
-        <v>2093</v>
+        <v>2080</v>
       </c>
       <c r="I481" s="10" t="s">
-        <v>1746</v>
+        <v>1646</v>
       </c>
       <c r="J481" s="13"/>
       <c r="K481" s="2"/>
@@ -43173,16 +43288,16 @@
       <c r="P481" s="13"/>
       <c r="Q481" s="13"/>
       <c r="R481" s="19" t="s">
-        <v>1745</v>
+        <v>1645</v>
       </c>
       <c r="S481" s="19" t="s">
-        <v>1747</v>
+        <v>1647</v>
       </c>
       <c r="T481" s="20" t="s">
-        <v>1748</v>
+        <v>1648</v>
       </c>
       <c r="U481" s="19" t="s">
-        <v>1749</v>
+        <v>1649</v>
       </c>
       <c r="V481" s="19" t="s">
         <v>21</v>
@@ -43202,18 +43317,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1755</v>
+        <v>1650</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1756</v>
+        <v>1651</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1757</v>
+        <v>1652</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>28</v>
@@ -43222,13 +43337,13 @@
         <v>21</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H482" s="37" t="s">
-        <v>2094</v>
+        <v>2081</v>
       </c>
       <c r="I482" s="10" t="s">
-        <v>1759</v>
+        <v>1654</v>
       </c>
       <c r="J482" s="13"/>
       <c r="K482" s="2"/>
@@ -43239,16 +43354,16 @@
       <c r="P482" s="13"/>
       <c r="Q482" s="13"/>
       <c r="R482" s="19" t="s">
-        <v>1758</v>
+        <v>1653</v>
       </c>
       <c r="S482" s="19" t="s">
-        <v>1760</v>
+        <v>1655</v>
       </c>
       <c r="T482" s="20" t="s">
-        <v>1761</v>
+        <v>1656</v>
       </c>
       <c r="U482" s="19" t="s">
-        <v>1762</v>
+        <v>1657</v>
       </c>
       <c r="V482" s="19" t="s">
         <v>21</v>
@@ -43268,18 +43383,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="483" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1763</v>
+        <v>1658</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1764</v>
+        <v>1659</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1765</v>
+        <v>1660</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>28</v>
@@ -43288,13 +43403,13 @@
         <v>21</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="H483" s="37" t="s">
-        <v>2095</v>
+        <v>2082</v>
       </c>
       <c r="I483" s="10" t="s">
-        <v>1767</v>
+        <v>1662</v>
       </c>
       <c r="J483" s="13"/>
       <c r="K483" s="2"/>
@@ -43305,16 +43420,16 @@
       <c r="P483" s="13"/>
       <c r="Q483" s="13"/>
       <c r="R483" s="19" t="s">
-        <v>1766</v>
+        <v>1661</v>
       </c>
       <c r="S483" s="19" t="s">
-        <v>1768</v>
+        <v>1663</v>
       </c>
       <c r="T483" s="20" t="s">
-        <v>1769</v>
+        <v>1664</v>
       </c>
       <c r="U483" s="19" t="s">
-        <v>1770</v>
+        <v>1665</v>
       </c>
       <c r="V483" s="19" t="s">
         <v>21</v>
@@ -43334,18 +43449,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="484" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1776</v>
+        <v>1666</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1777</v>
+        <v>1667</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1778</v>
+        <v>1668</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>28</v>
@@ -43354,13 +43469,13 @@
         <v>21</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="H484" s="37" t="s">
-        <v>2096</v>
+        <v>2083</v>
       </c>
       <c r="I484" s="10" t="s">
-        <v>1780</v>
+        <v>1670</v>
       </c>
       <c r="J484" s="13"/>
       <c r="K484" s="2"/>
@@ -43371,16 +43486,16 @@
       <c r="P484" s="13"/>
       <c r="Q484" s="13"/>
       <c r="R484" s="19" t="s">
-        <v>1779</v>
+        <v>1669</v>
       </c>
       <c r="S484" s="19" t="s">
-        <v>1781</v>
+        <v>1671</v>
       </c>
       <c r="T484" s="20" t="s">
-        <v>1782</v>
+        <v>1672</v>
       </c>
       <c r="U484" s="19" t="s">
-        <v>1783</v>
+        <v>1673</v>
       </c>
       <c r="V484" s="19" t="s">
         <v>21</v>
@@ -43400,18 +43515,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="485" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>1784</v>
+        <v>636</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1785</v>
+        <v>1674</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1786</v>
+        <v>1675</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1787</v>
+        <v>1676</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>28</v>
@@ -43420,13 +43535,13 @@
         <v>21</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>440</v>
+        <v>48</v>
       </c>
       <c r="H485" s="37" t="s">
-        <v>2097</v>
+        <v>2084</v>
       </c>
       <c r="I485" s="10" t="s">
-        <v>1789</v>
+        <v>1678</v>
       </c>
       <c r="J485" s="13"/>
       <c r="K485" s="2"/>
@@ -43437,16 +43552,16 @@
       <c r="P485" s="13"/>
       <c r="Q485" s="13"/>
       <c r="R485" s="19" t="s">
-        <v>1788</v>
+        <v>1677</v>
       </c>
       <c r="S485" s="19" t="s">
-        <v>1790</v>
+        <v>1679</v>
       </c>
       <c r="T485" s="20" t="s">
-        <v>1791</v>
+        <v>1680</v>
       </c>
       <c r="U485" s="19" t="s">
-        <v>1792</v>
+        <v>1681</v>
       </c>
       <c r="V485" s="19" t="s">
         <v>21</v>
@@ -43466,8 +43581,866 @@
         <v>28</v>
       </c>
     </row>
+    <row r="486" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H486" s="37" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I486" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J486" s="13"/>
+      <c r="K486" s="2"/>
+      <c r="L486" s="13"/>
+      <c r="M486" s="13"/>
+      <c r="N486" s="13"/>
+      <c r="O486" s="13"/>
+      <c r="P486" s="13"/>
+      <c r="Q486" s="13"/>
+      <c r="R486" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="S486" s="19" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T486" s="20" t="s">
+        <v>1688</v>
+      </c>
+      <c r="U486" s="19" t="s">
+        <v>1689</v>
+      </c>
+      <c r="V486" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W486" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X486" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y486" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z486" s="19"/>
+      <c r="AA486" s="21"/>
+      <c r="AB486" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="487" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H487" s="37" t="s">
+        <v>2086</v>
+      </c>
+      <c r="I487" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J487" s="13"/>
+      <c r="K487" s="2"/>
+      <c r="L487" s="13"/>
+      <c r="M487" s="13"/>
+      <c r="N487" s="13"/>
+      <c r="O487" s="13"/>
+      <c r="P487" s="13"/>
+      <c r="Q487" s="13"/>
+      <c r="R487" s="19" t="s">
+        <v>1690</v>
+      </c>
+      <c r="S487" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="T487" s="20" t="s">
+        <v>1693</v>
+      </c>
+      <c r="U487" s="19" t="s">
+        <v>1694</v>
+      </c>
+      <c r="V487" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W487" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X487" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y487" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z487" s="19"/>
+      <c r="AA487" s="21"/>
+      <c r="AB487" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="488" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H488" s="37" t="s">
+        <v>2087</v>
+      </c>
+      <c r="I488" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J488" s="13"/>
+      <c r="K488" s="2"/>
+      <c r="L488" s="13"/>
+      <c r="M488" s="13"/>
+      <c r="N488" s="13"/>
+      <c r="O488" s="13"/>
+      <c r="P488" s="13"/>
+      <c r="Q488" s="13"/>
+      <c r="R488" s="19" t="s">
+        <v>1698</v>
+      </c>
+      <c r="S488" s="19" t="s">
+        <v>1700</v>
+      </c>
+      <c r="T488" s="20" t="s">
+        <v>1701</v>
+      </c>
+      <c r="U488" s="19" t="s">
+        <v>1702</v>
+      </c>
+      <c r="V488" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W488" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X488" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y488" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z488" s="19"/>
+      <c r="AA488" s="21"/>
+      <c r="AB488" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="489" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H489" s="37" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I489" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J489" s="13"/>
+      <c r="K489" s="2"/>
+      <c r="L489" s="13"/>
+      <c r="M489" s="13"/>
+      <c r="N489" s="13"/>
+      <c r="O489" s="13"/>
+      <c r="P489" s="13"/>
+      <c r="Q489" s="13"/>
+      <c r="R489" s="19" t="s">
+        <v>1706</v>
+      </c>
+      <c r="S489" s="19" t="s">
+        <v>1708</v>
+      </c>
+      <c r="T489" s="20" t="s">
+        <v>1709</v>
+      </c>
+      <c r="U489" s="19" t="s">
+        <v>1710</v>
+      </c>
+      <c r="V489" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W489" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X489" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y489" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z489" s="19"/>
+      <c r="AA489" s="21"/>
+      <c r="AB489" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="490" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H490" s="37" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I490" s="10" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J490" s="13"/>
+      <c r="K490" s="2"/>
+      <c r="L490" s="13"/>
+      <c r="M490" s="13"/>
+      <c r="N490" s="13"/>
+      <c r="O490" s="13"/>
+      <c r="P490" s="13"/>
+      <c r="Q490" s="13"/>
+      <c r="R490" s="19" t="s">
+        <v>1714</v>
+      </c>
+      <c r="S490" s="19" t="s">
+        <v>1716</v>
+      </c>
+      <c r="T490" s="20" t="s">
+        <v>1717</v>
+      </c>
+      <c r="U490" s="19" t="s">
+        <v>1718</v>
+      </c>
+      <c r="V490" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W490" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X490" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y490" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z490" s="19"/>
+      <c r="AA490" s="21"/>
+      <c r="AB490" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="491" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H491" s="37" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I491" s="10" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J491" s="13"/>
+      <c r="K491" s="2"/>
+      <c r="L491" s="13"/>
+      <c r="M491" s="13"/>
+      <c r="N491" s="13"/>
+      <c r="O491" s="13"/>
+      <c r="P491" s="13"/>
+      <c r="Q491" s="13"/>
+      <c r="R491" s="19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="S491" s="19" t="s">
+        <v>1724</v>
+      </c>
+      <c r="T491" s="20" t="s">
+        <v>1725</v>
+      </c>
+      <c r="U491" s="19" t="s">
+        <v>1726</v>
+      </c>
+      <c r="V491" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W491" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X491" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y491" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z491" s="19"/>
+      <c r="AA491" s="21"/>
+      <c r="AB491" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="492" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H492" s="37" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I492" s="10" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J492" s="13"/>
+      <c r="K492" s="2"/>
+      <c r="L492" s="13"/>
+      <c r="M492" s="13"/>
+      <c r="N492" s="13"/>
+      <c r="O492" s="13"/>
+      <c r="P492" s="13"/>
+      <c r="Q492" s="13"/>
+      <c r="R492" s="19" t="s">
+        <v>1727</v>
+      </c>
+      <c r="S492" s="19" t="s">
+        <v>1729</v>
+      </c>
+      <c r="T492" s="20" t="s">
+        <v>1730</v>
+      </c>
+      <c r="U492" s="19" t="s">
+        <v>1731</v>
+      </c>
+      <c r="V492" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W492" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X492" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y492" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z492" s="19"/>
+      <c r="AA492" s="21"/>
+      <c r="AB492" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="493" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H493" s="37" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I493" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J493" s="13"/>
+      <c r="K493" s="2"/>
+      <c r="L493" s="13"/>
+      <c r="M493" s="13"/>
+      <c r="N493" s="13"/>
+      <c r="O493" s="13"/>
+      <c r="P493" s="13"/>
+      <c r="Q493" s="13"/>
+      <c r="R493" s="19" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S493" s="19" t="s">
+        <v>1742</v>
+      </c>
+      <c r="T493" s="20" t="s">
+        <v>1743</v>
+      </c>
+      <c r="U493" s="19" t="s">
+        <v>1744</v>
+      </c>
+      <c r="V493" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W493" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X493" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y493" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z493" s="19"/>
+      <c r="AA493" s="21"/>
+      <c r="AB493" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="494" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H494" s="37" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I494" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J494" s="13"/>
+      <c r="K494" s="2"/>
+      <c r="L494" s="13"/>
+      <c r="M494" s="13"/>
+      <c r="N494" s="13"/>
+      <c r="O494" s="13"/>
+      <c r="P494" s="13"/>
+      <c r="Q494" s="13"/>
+      <c r="R494" s="19" t="s">
+        <v>1745</v>
+      </c>
+      <c r="S494" s="19" t="s">
+        <v>1747</v>
+      </c>
+      <c r="T494" s="20" t="s">
+        <v>1748</v>
+      </c>
+      <c r="U494" s="19" t="s">
+        <v>1749</v>
+      </c>
+      <c r="V494" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W494" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X494" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y494" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z494" s="19"/>
+      <c r="AA494" s="21"/>
+      <c r="AB494" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="495" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H495" s="37" t="s">
+        <v>2094</v>
+      </c>
+      <c r="I495" s="10" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J495" s="13"/>
+      <c r="K495" s="2"/>
+      <c r="L495" s="13"/>
+      <c r="M495" s="13"/>
+      <c r="N495" s="13"/>
+      <c r="O495" s="13"/>
+      <c r="P495" s="13"/>
+      <c r="Q495" s="13"/>
+      <c r="R495" s="19" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S495" s="19" t="s">
+        <v>1760</v>
+      </c>
+      <c r="T495" s="20" t="s">
+        <v>1761</v>
+      </c>
+      <c r="U495" s="19" t="s">
+        <v>1762</v>
+      </c>
+      <c r="V495" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W495" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X495" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y495" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z495" s="19"/>
+      <c r="AA495" s="21"/>
+      <c r="AB495" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="496" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H496" s="37" t="s">
+        <v>2095</v>
+      </c>
+      <c r="I496" s="10" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J496" s="13"/>
+      <c r="K496" s="2"/>
+      <c r="L496" s="13"/>
+      <c r="M496" s="13"/>
+      <c r="N496" s="13"/>
+      <c r="O496" s="13"/>
+      <c r="P496" s="13"/>
+      <c r="Q496" s="13"/>
+      <c r="R496" s="19" t="s">
+        <v>1766</v>
+      </c>
+      <c r="S496" s="19" t="s">
+        <v>1768</v>
+      </c>
+      <c r="T496" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="U496" s="19" t="s">
+        <v>1770</v>
+      </c>
+      <c r="V496" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W496" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X496" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y496" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z496" s="19"/>
+      <c r="AA496" s="21"/>
+      <c r="AB496" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="497" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H497" s="37" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I497" s="10" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J497" s="13"/>
+      <c r="K497" s="2"/>
+      <c r="L497" s="13"/>
+      <c r="M497" s="13"/>
+      <c r="N497" s="13"/>
+      <c r="O497" s="13"/>
+      <c r="P497" s="13"/>
+      <c r="Q497" s="13"/>
+      <c r="R497" s="19" t="s">
+        <v>1779</v>
+      </c>
+      <c r="S497" s="19" t="s">
+        <v>1781</v>
+      </c>
+      <c r="T497" s="20" t="s">
+        <v>1782</v>
+      </c>
+      <c r="U497" s="19" t="s">
+        <v>1783</v>
+      </c>
+      <c r="V497" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W497" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X497" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y497" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z497" s="19"/>
+      <c r="AA497" s="21"/>
+      <c r="AB497" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="498" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H498" s="37" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I498" s="10" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J498" s="13"/>
+      <c r="K498" s="2"/>
+      <c r="L498" s="13"/>
+      <c r="M498" s="13"/>
+      <c r="N498" s="13"/>
+      <c r="O498" s="13"/>
+      <c r="P498" s="13"/>
+      <c r="Q498" s="13"/>
+      <c r="R498" s="19" t="s">
+        <v>1788</v>
+      </c>
+      <c r="S498" s="19" t="s">
+        <v>1790</v>
+      </c>
+      <c r="T498" s="20" t="s">
+        <v>1791</v>
+      </c>
+      <c r="U498" s="19" t="s">
+        <v>1792</v>
+      </c>
+      <c r="V498" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W498" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X498" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y498" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z498" s="19"/>
+      <c r="AA498" s="21"/>
+      <c r="AB498" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AA485" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:AA498" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="c135"/>
@@ -43516,8 +44489,8 @@
         <filter val="c178"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A94:AA485">
-      <sortCondition ref="H1:H485"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A94:AA498">
+      <sortCondition ref="H1:H498"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43530,7 +44503,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43551,18 +44524,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>178</v>
       </c>
       <c r="C2">
         <f>B2-A2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <f>ROUND(100/B2*A2,2)</f>
-        <v>75.28</v>
+        <v>78.650000000000006</v>
       </c>
     </row>
   </sheetData>
